--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,12 +51,24 @@
     <t>注：本文档用于记录G03组员项目日程内每日工作情况，具体工作进度请参考PRD2018-G03-甘特图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>填写了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +101,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,11 +262,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,43 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,10 +406,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +440,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,66 +615,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="6" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -674,17 +693,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>43381</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>43382</v>
       </c>
@@ -694,7 +723,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>43383</v>
       </c>
@@ -704,7 +733,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>43384</v>
       </c>
@@ -714,7 +743,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>43385</v>
       </c>
@@ -724,7 +753,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>43386</v>
       </c>
@@ -734,7 +763,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>43387</v>
       </c>
@@ -744,7 +773,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>43388</v>
       </c>
@@ -754,7 +783,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>43389</v>
       </c>
@@ -764,7 +793,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>43390</v>
       </c>
@@ -774,7 +803,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>43391</v>
       </c>
@@ -784,7 +813,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>43392</v>
       </c>
@@ -794,7 +823,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>43393</v>
       </c>
@@ -804,7 +833,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>43394</v>
       </c>
@@ -814,7 +843,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>43395</v>
       </c>
@@ -824,7 +853,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>43396</v>
       </c>
@@ -834,7 +863,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>43397</v>
       </c>
@@ -844,7 +873,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>43398</v>
       </c>
@@ -854,7 +883,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>43399</v>
       </c>
@@ -864,7 +893,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>43400</v>
       </c>
@@ -874,7 +903,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>43401</v>
       </c>
@@ -884,7 +913,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>43402</v>
       </c>
@@ -894,7 +923,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>43403</v>
       </c>
@@ -904,7 +933,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>43404</v>
       </c>
@@ -914,7 +943,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>43405</v>
       </c>
@@ -924,7 +953,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>43406</v>
       </c>
@@ -934,7 +963,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>43407</v>
       </c>
@@ -944,7 +973,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>43408</v>
       </c>
@@ -954,7 +983,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
         <v>43409</v>
       </c>
@@ -964,7 +993,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>43410</v>
       </c>
@@ -974,7 +1003,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
         <v>43411</v>
       </c>
@@ -984,7 +1013,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>43412</v>
       </c>
@@ -994,7 +1023,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>43413</v>
       </c>
@@ -1004,7 +1033,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>43414</v>
       </c>
@@ -1014,7 +1043,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>43415</v>
       </c>
@@ -1024,7 +1053,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>43416</v>
       </c>
@@ -1034,7 +1063,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>43417</v>
       </c>
@@ -1044,7 +1073,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>43418</v>
       </c>
@@ -1054,7 +1083,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>43419</v>
       </c>
@@ -1064,7 +1093,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>43420</v>
       </c>
@@ -1074,7 +1103,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>43421</v>
       </c>
@@ -1084,7 +1113,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>43422</v>
       </c>
@@ -1094,7 +1123,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>43423</v>
       </c>
@@ -1104,7 +1133,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>43424</v>
       </c>
@@ -1114,7 +1143,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>43425</v>
       </c>
@@ -1124,7 +1153,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>43426</v>
       </c>
@@ -1134,7 +1163,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>43427</v>
       </c>
@@ -1144,7 +1173,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>43428</v>
       </c>
@@ -1154,7 +1183,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
         <v>43429</v>
       </c>

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,12 +63,16 @@
     <t>填写了部分可行性分析报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>记录人：杨以恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +113,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,7 +327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -616,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -628,104 +650,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>43381</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>43382</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>43381</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>43383</v>
+        <v>43382</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -735,7 +757,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>43384</v>
+        <v>43383</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -745,7 +767,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>43385</v>
+        <v>43384</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -755,7 +777,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>43386</v>
+        <v>43385</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -765,7 +787,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>43387</v>
+        <v>43386</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -775,7 +797,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>43388</v>
+        <v>43387</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -785,7 +807,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>43389</v>
+        <v>43388</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -795,7 +817,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>43390</v>
+        <v>43389</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -805,7 +827,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -815,7 +837,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
-        <v>43392</v>
+        <v>43391</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -825,7 +847,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -835,7 +857,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -845,7 +867,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
-        <v>43395</v>
+        <v>43394</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -855,7 +877,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3">
-        <v>43396</v>
+        <v>43395</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -865,7 +887,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3">
-        <v>43397</v>
+        <v>43396</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -875,7 +897,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3">
-        <v>43398</v>
+        <v>43397</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -885,7 +907,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3">
-        <v>43399</v>
+        <v>43398</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -895,7 +917,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3">
-        <v>43400</v>
+        <v>43399</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -905,7 +927,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3">
-        <v>43401</v>
+        <v>43400</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -915,7 +937,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3">
-        <v>43402</v>
+        <v>43401</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -925,7 +947,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
-        <v>43403</v>
+        <v>43402</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -935,7 +957,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3">
-        <v>43404</v>
+        <v>43403</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -945,7 +967,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -955,7 +977,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -965,7 +987,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3">
-        <v>43407</v>
+        <v>43406</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -975,7 +997,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3">
-        <v>43408</v>
+        <v>43407</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -985,7 +1007,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3">
-        <v>43409</v>
+        <v>43408</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -995,7 +1017,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3">
-        <v>43410</v>
+        <v>43409</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1005,7 +1027,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3">
-        <v>43411</v>
+        <v>43410</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1015,7 +1037,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3">
-        <v>43412</v>
+        <v>43411</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1025,7 +1047,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3">
-        <v>43413</v>
+        <v>43412</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1035,7 +1057,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3">
-        <v>43414</v>
+        <v>43413</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1045,7 +1067,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3">
-        <v>43415</v>
+        <v>43414</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1055,7 +1077,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3">
-        <v>43416</v>
+        <v>43415</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1065,7 +1087,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3">
-        <v>43417</v>
+        <v>43416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1075,7 +1097,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3">
-        <v>43418</v>
+        <v>43417</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1085,7 +1107,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1095,7 +1117,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3">
-        <v>43420</v>
+        <v>43419</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1105,7 +1127,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3">
-        <v>43421</v>
+        <v>43420</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1115,7 +1137,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3">
-        <v>43422</v>
+        <v>43421</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1125,7 +1147,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3">
-        <v>43423</v>
+        <v>43422</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1135,7 +1157,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3">
-        <v>43424</v>
+        <v>43423</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1145,7 +1167,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3">
-        <v>43425</v>
+        <v>43424</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1155,7 +1177,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3">
-        <v>43426</v>
+        <v>43425</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1165,7 +1187,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3">
-        <v>43427</v>
+        <v>43426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1175,7 +1197,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3">
-        <v>43428</v>
+        <v>43427</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1185,7 +1207,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3">
-        <v>43429</v>
+        <v>43428</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1193,10 +1215,21 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>43429</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F3"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>记录人：杨以恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、讲解git、填写报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、学习git、填写报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、学习git、填写会议记录、填写报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,13 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,7 +653,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -676,14 +688,14 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
@@ -749,11 +761,21 @@
       <c r="A9" s="3">
         <v>43382</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,23 +60,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>记录人：杨以恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、讲解git、填写报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、学习git、填写报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议、学习git、填写会议记录、填写报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>填写了部分可行性分析报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记录人：杨以恒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组会议、讲解git、填写报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组会议、学习git、填写报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组会议、学习git、填写会议记录、填写报告</t>
+    <t>填写了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了部分可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程报告、写ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML PPT目录确定，编写任务发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做ppt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +681,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -689,7 +717,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -742,10 +770,10 @@
         <v>43381</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -762,40 +790,60 @@
         <v>43382</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>43383</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>43384</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,13 @@
   </si>
   <si>
     <t>做ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写UML概述PPT</t>
+  </si>
+  <si>
+    <t>写UML概述PPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +688,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -849,11 +856,21 @@
       <c r="A12" s="3">
         <v>43385</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>写UML概述PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排练PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁听PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看RSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会，任务分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +712,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -896,21 +920,41 @@
       <c r="A15" s="3">
         <v>43388</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>43389</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改PPT画UML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改了甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT演讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转课堂UML概述PPT交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +736,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -960,21 +984,37 @@
       <c r="A17" s="3">
         <v>43390</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>43391</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>配置环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目总体计划</t>
+  </si>
+  <si>
+    <t>编写项目总体计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目总体计划、项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目总体计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +751,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1020,11 +1035,21 @@
       <c r="A19" s="3">
         <v>43392</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">

--- a/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
+++ b/非受控文档/3_杨以恒/组员工作进度每日汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="10380"/>
+    <workbookView windowWidth="21600" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>PRD2018-G03-组员工作进度每日汇总表</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>制作图PPT</t>
+  </si>
+  <si>
+    <t>修改需求工程项目计划</t>
+  </si>
+  <si>
+    <t>讨论界面原型</t>
+  </si>
+  <si>
+    <t>制作界面原型PPT</t>
+  </si>
+  <si>
+    <t>绘制界面原型</t>
   </si>
 </sst>
 </file>
@@ -140,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +193,110 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,24 +304,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,114 +335,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,25 +345,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,11 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,32 +690,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -725,17 +710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,151 +742,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1765,51 +1770,101 @@
       <c r="A29" s="22">
         <v>43402</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="22">
         <v>43403</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22">
         <v>43404</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="22">
         <v>43405</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="22">
         <v>43406</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="22">
